--- a/pymysql_learn/Data.xlsx
+++ b/pymysql_learn/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer_Programming\Programing\Python\silver_-python\pymysql_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA555FE-AFAA-4F11-B028-FEBB817A3DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF070391-B2BB-46F3-BD9B-E5331FBC0C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="765" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{FD3A1885-4EB0-4D90-A4D4-52D6063C087F}"/>
+    <workbookView xWindow="2430" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{FD3A1885-4EB0-4D90-A4D4-52D6063C087F}"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="144">
   <si>
     <t>Cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,50 @@
   </si>
   <si>
     <t>6692</t>
+  </si>
+  <si>
+    <t>Dclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2103016数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2103016网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2103016嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2103016软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cterm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -894,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417943E6-0B26-4C3D-853F-410C7D30DDD0}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,7 +949,7 @@
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,8 +962,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -932,8 +979,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -946,8 +996,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -960,8 +1013,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -974,8 +1030,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -988,8 +1047,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1002,8 +1064,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1016,8 +1081,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1030,8 +1098,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1044,8 +1115,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1058,8 +1132,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1072,8 +1149,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1086,8 +1166,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1100,8 +1183,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1114,8 +1200,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1128,8 +1217,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1142,8 +1234,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1156,8 +1251,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1170,8 +1268,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1184,8 +1285,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1198,8 +1302,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1211,6 +1318,9 @@
       </c>
       <c r="D22">
         <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1280,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B31F173-BB14-4421-834F-3A6BE3E84E87}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1291,7 +1401,7 @@
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1307,8 +1417,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>21009200076</v>
       </c>
@@ -1324,8 +1437,11 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21009200087</v>
       </c>
@@ -1341,8 +1457,11 @@
       <c r="E3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21030100012</v>
       </c>
@@ -1358,8 +1477,11 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21009201392</v>
       </c>
@@ -1375,8 +1497,11 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21009200367</v>
       </c>
@@ -1392,8 +1517,11 @@
       <c r="E6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21009200140</v>
       </c>
@@ -1409,8 +1537,11 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21009200619</v>
       </c>
@@ -1426,8 +1557,11 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21009200134</v>
       </c>
@@ -1443,8 +1577,11 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21009200710</v>
       </c>
@@ -1460,8 +1597,11 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21009201146</v>
       </c>
@@ -1477,8 +1617,11 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21009200141</v>
       </c>
@@ -1494,8 +1637,11 @@
       <c r="E12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21009201164</v>
       </c>
@@ -1511,8 +1657,11 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21009200574</v>
       </c>
@@ -1528,8 +1677,11 @@
       <c r="E14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21009200078</v>
       </c>
@@ -1545,8 +1697,11 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21009200162</v>
       </c>
@@ -1562,8 +1717,11 @@
       <c r="E16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>21030100002</v>
       </c>
@@ -1579,8 +1737,11 @@
       <c r="E17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21009200115</v>
       </c>
@@ -1596,8 +1757,11 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21009200708</v>
       </c>
@@ -1613,8 +1777,11 @@
       <c r="E19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21009200589</v>
       </c>
@@ -1630,8 +1797,11 @@
       <c r="E20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21009200406</v>
       </c>
@@ -1647,8 +1817,11 @@
       <c r="E21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21009200205</v>
       </c>
@@ -1664,8 +1837,11 @@
       <c r="E22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21009201323</v>
       </c>
@@ -1681,8 +1857,11 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21009200341</v>
       </c>
@@ -1698,8 +1877,11 @@
       <c r="E24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20009200875</v>
       </c>
@@ -1714,6 +1896,9 @@
       </c>
       <c r="E25" t="s">
         <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4BEDC9-1D44-4F1F-99C3-9E36A42B47A3}">
   <dimension ref="A1:E433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+    <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="M434" sqref="M434"/>
     </sheetView>
   </sheetViews>
